--- a/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_4/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_4/out_of_sample/additive/ranking_test4/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.114</v>
+        <v>0.6840000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.721</v>
+        <v>14.834</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.143</v>
+        <v>0.793</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.732</v>
+        <v>12.144</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.188</v>
+        <v>0.962</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.69</v>
+        <v>5.342</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7.446712818088756</v>
+        <v>10.62872478224266</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>23.08170901162766</v>
+        <v>7.865436933181751</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>27.38193646338652</v>
+        <v>20.15219097451351</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.516034413298044</v>
+        <v>2.316927535170016</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>20.5238938532188</v>
+        <v>17.44196924638011</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>25.01765414492773</v>
+        <v>18.64691028550721</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>9.615382625455304</v>
+        <v>6.2977136183009</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>25.08878848852572</v>
+        <v>27.0560535785836</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.50594076095744</v>
+        <v>28.12910701496517</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29.80494590834762</v>
+        <v>10.6027182383941</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>36.11224500145018</v>
+        <v>15.89325976839098</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>39.2506787914826</v>
+        <v>17.89769961828722</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12.87812415939819</v>
+        <v>22.64978788015188</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>31.1251468976988</v>
+        <v>13.9047057412857</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>36.92687517194918</v>
+        <v>29.13924073881279</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>11.42670562540651</v>
+        <v>14.65763715879551</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>27.33858110689354</v>
+        <v>26.23710226659975</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>31.85061782931488</v>
+        <v>35.19115004385584</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6.691382413089102</v>
+        <v>5.665863890344397</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>23.92991146483755</v>
+        <v>16.1849175453749</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>28.66723566883066</v>
+        <v>17.24637437180472</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>13.36853051191324</v>
+        <v>1.240601507855146</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.13682619163292</v>
+        <v>22.52061862769141</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>8.649863040894473</v>
+        <v>15.07386487466022</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>24.35785680029499</v>
+        <v>19.1212094961402</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>28.65861150614405</v>
+        <v>22.49882875950681</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4.825039017452255</v>
+        <v>2.380362600152605</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>21.917173144185</v>
+        <v>29.72233671854277</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>26.41099328215334</v>
+        <v>28.08095358586588</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>11.01030915942044</v>
+        <v>3.677252610673033</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>26.55580699952402</v>
+        <v>37.31007865608709</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>30.97348081983206</v>
+        <v>34.67315449697966</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>31.21487602629758</v>
+        <v>36.82318910809464</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>37.53662007081554</v>
+        <v>42.76016689734671</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>40.67704392874892</v>
+        <v>43.09624012602701</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>14.17746142272448</v>
+        <v>26.86194805236254</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>32.5213321571923</v>
+        <v>37.67523214872087</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>38.32272932820606</v>
+        <v>42.15124977988442</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>12.64008452649801</v>
+        <v>18.84926566983485</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>28.62581139082926</v>
+        <v>38.39862450321579</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>33.13941008749372</v>
+        <v>42.67706944377117</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>8.008588571358118</v>
+        <v>9.708486064727197</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>25.33214120344596</v>
+        <v>34.8859071590156</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>30.07062430109828</v>
+        <v>43.33250965186041</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>30.61470929247962</v>
+        <v>52.6470496436439</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>8.918892360795148</v>
+        <v>7.472087625373792</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>24.63118643206582</v>
+        <v>15.81418957447038</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>28.93105683625382</v>
+        <v>20.37587429721868</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5.130503462897195</v>
+        <v>1.107131804174148</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>22.22815538517303</v>
+        <v>29.57449340953616</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>26.72149325384584</v>
+        <v>29.2445910817783</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>11.32387357084369</v>
+        <v>3.571789115641955</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>26.87377415134615</v>
+        <v>39.18195138989756</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>31.29042151175124</v>
+        <v>39.9369746179871</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>31.51870927668676</v>
+        <v>39.9798115059867</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>37.83758745011013</v>
+        <v>43.79089983951683</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>40.97849273831962</v>
+        <v>49.13283400330137</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>14.46477265259821</v>
+        <v>16.41566640421372</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>32.81859044514096</v>
+        <v>28.88193456484344</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>38.61802400802816</v>
+        <v>34.01818169993148</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>12.90833319750546</v>
+        <v>12.17225483706711</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>28.89814270055088</v>
+        <v>32.15233135737322</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>33.41097050103235</v>
+        <v>39.2195783175926</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>8.313248585423629</v>
+        <v>6.005114744702347</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>25.64213327223084</v>
+        <v>29.02167472818805</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>30.38022207143879</v>
+        <v>42.74165596737753</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>15.0861033696948</v>
+        <v>5.16616353966544</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>30.93152500931164</v>
+        <v>48.55640805706112</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>8.076601948034551</v>
+        <v>1.857338298778977</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>23.77363664018074</v>
+        <v>10.63401131553553</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>28.08188219858108</v>
+        <v>20.60965634482768</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>4.220826921002228</v>
+        <v>1.069099993513699</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>21.2989448010175</v>
+        <v>28.3263980976087</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>25.8015365052805</v>
+        <v>33.39977840479055</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>10.37117861905126</v>
+        <v>1.227014786423929</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>25.90609308276303</v>
+        <v>39.19715371665885</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>30.33130283043082</v>
+        <v>41.74101866417204</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>30.59243250144481</v>
+        <v>32.77107416420716</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>36.91317469423495</v>
+        <v>36.84565085747245</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>40.06017662664677</v>
+        <v>41.52722991779576</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>13.57501661437048</v>
+        <v>13.94590391001004</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>31.90469143600598</v>
+        <v>25.25280514540903</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>37.71589666627771</v>
+        <v>38.29872172265839</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>12.06528166045281</v>
+        <v>7.918597071392554</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>28.0397838297995</v>
+        <v>28.20632760970727</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>32.56069798699056</v>
+        <v>40.58675404616211</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>7.402530315888654</v>
+        <v>7.462576387480176</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>24.71182931088939</v>
+        <v>27.6624739978912</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>29.45887504195854</v>
+        <v>43.22874863596741</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>14.13215838216107</v>
+        <v>2.700446521140414</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>29.96256560921734</v>
+        <v>41.05977111477301</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>33.7608588345297</v>
+        <v>31.53249419205015</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>33.59610150769956</v>
+        <v>22.1806752532376</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>40.28279109584052</v>
+        <v>42.5386154931409</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>43.70671794766483</v>
+        <v>47.96609565783132</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>16.56594618187805</v>
+        <v>6.470560563333677</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>35.76110872942638</v>
+        <v>21.31852538632783</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>41.59319886242984</v>
+        <v>27.74162797467326</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>18.22666488949351</v>
+        <v>13.05208643904859</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>34.73654286861242</v>
+        <v>19.83902439391782</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>39.54265391864863</v>
+        <v>32.88233532799165</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>13.25512027404754</v>
+        <v>2.17126215334126</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>31.23711213536843</v>
+        <v>10.51175340127828</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>36.30257413943497</v>
+        <v>16.36370896736727</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>21.14146331866544</v>
+        <v>-2.329435080189334</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>37.50492495593726</v>
+        <v>20.14694161791727</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>42.43112131542674</v>
+        <v>37.75934249301581</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>42.71458306410061</v>
+        <v>22.05066185934258</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>49.83277337349955</v>
+        <v>45.69269064846073</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>53.29320829188639</v>
+        <v>55.11052590365762</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>24.88860062867577</v>
+        <v>1.773635337516609</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>44.74512977760811</v>
+        <v>19.01667437415834</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>50.91179758135813</v>
+        <v>32.01534616666351</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>35.24030033117421</v>
+        <v>65.32990274990922</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>35.01245185191127</v>
+        <v>53.78637667525842</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>41.7142744376306</v>
+        <v>68.30087404029608</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>45.14072270447635</v>
+        <v>74.45093453993961</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>17.87416180843732</v>
+        <v>20.71006957761589</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>37.1684823185013</v>
+        <v>65.23186408204393</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>43.0016017503921</v>
+        <v>67.37533561946974</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>19.49854256996561</v>
+        <v>22.92714991380442</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>36.08275695891916</v>
+        <v>40.90985723228906</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>40.89064809034728</v>
+        <v>47.7762131300732</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>14.63239079997784</v>
+        <v>9.800766888075408</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>32.70001990951713</v>
+        <v>41.85922066590399</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>37.76729523100138</v>
+        <v>48.87545389440444</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>22.61092088131672</v>
+        <v>8.071269597509193</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>39.04784206687441</v>
+        <v>61.54155834578233</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>43.97581981723422</v>
+        <v>73.27856497903329</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>44.19649617374948</v>
+        <v>74.80476958932186</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>51.32744048904011</v>
+        <v>87.51443794034481</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>54.7905248922212</v>
+        <v>92.17134148651395</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>26.26060074294296</v>
+        <v>26.66700471020106</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>46.2156546112269</v>
+        <v>77.07225449566455</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>52.3832893992366</v>
+        <v>81.23107823123999</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>35.55621029314598</v>
+        <v>68.44424500426678</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>35.31386531078014</v>
+        <v>45.22551313096698</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>42.01248703945825</v>
+        <v>55.15402748955866</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>45.43959772617855</v>
+        <v>71.60353278868438</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>18.16068451668293</v>
+        <v>12.02504838872198</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>37.46451686119033</v>
+        <v>58.55026364959311</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>19.78191940867621</v>
+        <v>14.60021035748802</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>36.37015346586375</v>
+        <v>35.7469083690146</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>41.17690106190631</v>
+        <v>46.06411764987718</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>14.95267851363937</v>
+        <v>5.442684234589152</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>33.02549363639984</v>
+        <v>38.89307307716971</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>38.09208342842078</v>
+        <v>50.12062679164455</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>22.93969901270147</v>
+        <v>4.255779576634254</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>39.38072789257787</v>
+        <v>59.95404650309753</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>44.30741690264733</v>
+        <v>78.13991401353647</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>44.5130801739741</v>
+        <v>70.54679754967603</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>51.63999711807192</v>
+        <v>81.50735068364241</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>55.10336558484596</v>
+        <v>94.10545074986106</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>26.5618397307272</v>
+        <v>15.48601982608096</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>46.52609107682345</v>
+        <v>71.01520289512165</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>52.69164948206682</v>
+        <v>80.36728076630652</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>34.59551540701206</v>
+        <v>62.72263685755526</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>34.38840847641917</v>
+        <v>29.22003856624948</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>41.08907538930711</v>
+        <v>39.82836782330888</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>44.52260737520675</v>
+        <v>54.57128021795251</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>17.27042138910392</v>
+        <v>10.15312239301544</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>36.55034236886142</v>
+        <v>52.29366933404005</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>42.39278340025259</v>
+        <v>60.63934246248223</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>18.92082160091527</v>
+        <v>12.03449078153078</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>35.49460190695032</v>
+        <v>35.54990265613458</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>40.30988742629116</v>
+        <v>50.73482591732168</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>14.02251703118602</v>
+        <v>9.065605587756671</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>32.07678275057028</v>
+        <v>37.11764628951288</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>37.15261718116822</v>
+        <v>53.18267280350069</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>21.96624860908433</v>
+        <v>1.92690315183583</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>38.39310189207215</v>
+        <v>52.51700874484479</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>43.32851744761559</v>
+        <v>75.9654389231317</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>43.56979997408438</v>
+        <v>58.26846582196855</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>50.70115880756071</v>
+        <v>73.43700906805509</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>54.17074792453235</v>
+        <v>91.87058485519523</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>25.65282737208863</v>
+        <v>13.19457186157226</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>45.59495330131093</v>
+        <v>67.53007748024017</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>51.77217472096115</v>
+        <v>82.21623349419967</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>2.814748514012607</v>
+        <v>14.93121645822979</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>18.91592227576108</v>
+        <v>36.92325005502667</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>22.7940559277416</v>
+        <v>52.41686618650587</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>-0.7299019983514938</v>
+        <v>4.276517647469934</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>16.80658308120805</v>
+        <v>45.29513038264908</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>20.80767418879554</v>
+        <v>52.70332867728947</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>5.11993876569413</v>
+        <v>12.45164647344268</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>21.0800454781726</v>
+        <v>78.19650462956542</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>25.06117384419505</v>
+        <v>82.97104363473942</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>26.244582059189</v>
+        <v>46.74766132915413</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>32.50200993988522</v>
+        <v>54.83430600626117</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>35.37330531011297</v>
+        <v>57.75045909224968</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>8.837253503432812</v>
+        <v>21.98829330359747</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>27.73622176405732</v>
+        <v>34.74813325430797</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>33.14976330963771</v>
+        <v>59.85189794737107</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>5.550707039783532</v>
+        <v>17.02605485170633</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>21.84024448602068</v>
+        <v>35.27874381301197</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>25.9079220345586</v>
+        <v>38.9749668893369</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>1.160269713915184</v>
+        <v>-3.620488847042445</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>18.84172308528825</v>
+        <v>22.34114111974621</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>23.06241535450849</v>
+        <v>20.63048003479678</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>7.529966433861361</v>
+        <v>-1.391098995030433</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>23.69298549047014</v>
+        <v>42.5872181621849</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>3.941827476928395</v>
+        <v>26.23041347486093</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>20.11426855788882</v>
+        <v>56.29369172634442</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>23.99173126564781</v>
+        <v>60.13397420505648</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>0.4969322070939342</v>
+        <v>10.67124954670417</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>18.1157270244432</v>
+        <v>65.4421222999764</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>22.11542590314311</v>
+        <v>65.2733450866349</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>6.428270536358156</v>
+        <v>16.18643092838301</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>22.45875424362569</v>
+        <v>95.08314881348215</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>26.43921378607664</v>
+        <v>91.6784291246634</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>27.57251847023271</v>
+        <v>83.88128792761108</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>33.84395535972944</v>
+        <v>91.73315847623471</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>36.71650063735176</v>
+        <v>89.26477724718922</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>10.05748306957637</v>
+        <v>31.10659713345984</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>29.05123635263624</v>
+        <v>64.68622287090031</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>34.46307467547503</v>
+        <v>75.22265888452927</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>6.685748109596133</v>
+        <v>24.78823989881587</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>23.0471715631088</v>
+        <v>51.51231380309376</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>27.11514702876079</v>
+        <v>49.02176848974952</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>2.392945338297821</v>
+        <v>2.432326201539013</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>20.15721438121292</v>
+        <v>44.65106917019168</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>24.37754807014007</v>
+        <v>44.02858420978839</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>8.845811990109262</v>
+        <v>6.318521040376744</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>25.07983780370179</v>
+        <v>72.9574571249138</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>4.201543167900624</v>
+        <v>12.44177135001678</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>20.37748264809432</v>
+        <v>45.3966478162862</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>24.2539632839952</v>
+        <v>50.34547078802969</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>0.7913150751410853</v>
+        <v>6.3175803180328</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>18.41475910070256</v>
+        <v>61.50587129944122</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>22.41383789851121</v>
+        <v>61.98085243903182</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>6.730123647595875</v>
+        <v>11.47219613367368</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>22.76418078303384</v>
+        <v>90.53477916738113</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>26.74353222043572</v>
+        <v>89.85086668582284</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>27.86470484132727</v>
+        <v>87.4762741907507</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>34.13331600833296</v>
+        <v>94.20242479669801</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>37.0061771963082</v>
+        <v>94.38974819624175</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>10.33422718080709</v>
+        <v>16.44914690676931</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>29.33682839963665</v>
+        <v>52.21844219691179</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>34.7465128619403</v>
+        <v>62.47284055621454</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>6.945509793176207</v>
+        <v>15.11727295279461</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>23.31025994547925</v>
+        <v>42.30430630629472</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>27.37736523767392</v>
+        <v>42.53194612472103</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>2.68739159087535</v>
+        <v>-1.398645112219882</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>20.45616875036872</v>
+        <v>39.36684809582442</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>24.67596653977372</v>
+        <v>42.69506499070996</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>9.147659612152083</v>
+        <v>2.48340337168765</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>25.38506323897023</v>
+        <v>66.69939257615795</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>3.39860780575215</v>
+        <v>5.954019629046442</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>19.56115298133164</v>
+        <v>38.33369710155809</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>23.44589724792207</v>
+        <v>51.46540028994513</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>-0.07469840321743959</v>
+        <v>7.892499575122571</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>17.53133461615653</v>
+        <v>61.1018195479603</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>21.53957265543173</v>
+        <v>70.44404994000675</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>5.823447207110405</v>
+        <v>10.04028846534739</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>21.84440941831205</v>
+        <v>90.46594658830229</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>25.83217967602135</v>
+        <v>95.27607653034157</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>26.98326552452283</v>
+        <v>79.53569185880153</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>33.25408187294866</v>
+        <v>88.89858860920978</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>36.13285882916874</v>
+        <v>91.20035046174644</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>9.4866702435191</v>
+        <v>12.77454622658512</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>28.46750620587517</v>
+        <v>48.77035168591272</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>33.88902579864894</v>
+        <v>69.50022509763234</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>6.140997895968937</v>
+        <v>10.4216377624558</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>22.49228604492666</v>
+        <v>37.25766774320382</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>26.5673720422052</v>
+        <v>44.24177428822177</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>1.819486346696294</v>
+        <v>1.187840643318971</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>19.57079000110524</v>
+        <v>38.40605918489327</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>23.79945381126932</v>
+        <v>47.01238702348206</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>8.23886285306574</v>
+        <v>2.046900106976658</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>24.46312291770627</v>
+        <v>60.5897713481342</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>27.85863144788019</v>
+        <v>45.83229664315747</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>28.71158451490711</v>
+        <v>35.34099226110668</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>35.29136890028158</v>
+        <v>51.48383646600725</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>38.411410326967</v>
+        <v>53.62976453150873</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>11.39011539939617</v>
+        <v>10.37572932777424</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>31.07486233889813</v>
+        <v>34.64602936722287</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>36.51563568690687</v>
+        <v>42.56344076771633</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>12.15104463943874</v>
+        <v>15.97860101449344</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>28.99411438529115</v>
+        <v>32.98901217994511</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>33.31760949811892</v>
+        <v>42.00703508778951</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>7.623727953136921</v>
+        <v>-2.631811279732048</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>25.98545160155998</v>
+        <v>21.97631492649164</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>30.48891290085795</v>
+        <v>25.64828463033319</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>15.11575814754322</v>
+        <v>0.992875597584721</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>31.83179408108196</v>
+        <v>47.22257112152266</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>36.26065683434893</v>
+        <v>62.01083213540697</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>37.53181067413279</v>
+        <v>42.33500411878116</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>44.50129343416823</v>
+        <v>56.77581496060473</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>47.67691405531799</v>
+        <v>64.62587132249857</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>19.42507713065564</v>
+        <v>9.669646051969409</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>39.7603553372201</v>
+        <v>35.80377573271427</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>45.46843881414846</v>
+        <v>50.36288534905447</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>29.24578771614932</v>
+        <v>76.07794700686068</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>30.04348846978477</v>
+        <v>69.94054525137906</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>36.63790615709443</v>
+        <v>81.08307818011949</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>39.75967127068175</v>
+        <v>79.36576076131189</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>12.61699244668326</v>
+        <v>22.67741634913436</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>32.39847576120998</v>
+        <v>76.01613275735369</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>37.83880631363355</v>
+        <v>74.38468877704074</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>13.33821500013683</v>
+        <v>23.63418198024362</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>30.2536244363847</v>
+        <v>51.87217449428772</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>34.5774471080516</v>
+        <v>49.88715172327316</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>8.910250863354321</v>
+        <v>2.182636253184988</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>27.35535137089019</v>
+        <v>50.83458390223364</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>31.85886732223416</v>
+        <v>48.00247101947021</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>16.48931845863842</v>
+        <v>6.378964611196849</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>33.27683115744156</v>
+        <v>81.81680802461099</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>37.7060282715975</v>
+        <v>83.31493036872179</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>38.92262139881773</v>
+        <v>88.20271866987838</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>45.90441005833843</v>
+        <v>93.05752237443346</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>49.08186307815742</v>
+        <v>92.73563611622147</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>20.70938616589186</v>
+        <v>28.58355967521031</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>41.14078312856637</v>
+        <v>86.9836657741004</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>46.84818171819234</v>
+        <v>86.04588930769279</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>29.55002588182392</v>
+        <v>76.14198832746165</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>30.33416257010878</v>
+        <v>64.9769004765878</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>36.92548362664651</v>
+        <v>74.02008709432666</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>40.04773485495578</v>
+        <v>79.0718015041908</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>12.89368599489264</v>
+        <v>12.72616007204219</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>32.68365711667609</v>
+        <v>69.82496599452887</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>38.12215448134976</v>
+        <v>70.16722841370228</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>13.61134114734197</v>
+        <v>12.24333066924472</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>30.53002190294568</v>
+        <v>43.76170524092765</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>34.8525951458321</v>
+        <v>44.080643310569</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>9.218439887042045</v>
+        <v>-3.161409150841067</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>27.66792141484643</v>
+        <v>47.70498934338656</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>32.17060163540614</v>
+        <v>47.11445918855776</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>16.8053202907782</v>
+        <v>0.5043899655930488</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>33.59616501439243</v>
+        <v>77.8859535612728</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>38.02398401133039</v>
+        <v>83.68623099602739</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>39.22662133523757</v>
+        <v>86.51827891846344</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>46.20450639205026</v>
+        <v>91.22130316989708</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>49.38207860152075</v>
+        <v>96.04249229593881</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>20.99906734211544</v>
+        <v>15.4560366142376</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>41.43863910291856</v>
+        <v>81.88677852664057</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>47.14375093072443</v>
+        <v>83.67997334962563</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>28.63621137737048</v>
+        <v>74.45486321776423</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>29.45268422437246</v>
+        <v>48.68753846494869</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>36.04634886340907</v>
+        <v>61.12079513985243</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>39.17479453618401</v>
+        <v>66.75264168044458</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>12.04495281796912</v>
+        <v>10.75642844835633</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>31.81331398747835</v>
+        <v>65.07299594028068</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>37.2628709205631</v>
+        <v>73.17285342580053</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>12.79181013733274</v>
+        <v>7.593115358781453</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>29.69781922524978</v>
+        <v>41.54274499607804</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>34.02885482322674</v>
+        <v>48.83328774069125</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>8.334188523381442</v>
+        <v>0.4471515353027939</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>26.76715024830098</v>
+        <v>46.92663928570315</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>31.27902990189644</v>
+        <v>53.91291583655828</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>15.88028347191748</v>
+        <v>-0.3652273163574193</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>32.65875979336526</v>
+        <v>72.51761614257273</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>37.09519742968784</v>
+        <v>86.58787345462065</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>38.33031361597379</v>
+        <v>77.38266453177926</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>45.3127991058446</v>
+        <v>86.45214273237546</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>48.49642183314828</v>
+        <v>96.99947623716888</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>20.1344317125087</v>
+        <v>10.35958276537509</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>40.5541366284252</v>
+        <v>79.18533256056234</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>46.27100275778129</v>
+        <v>89.81266712062724</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>-18.78882567910603</v>
+        <v>14.98662598519212</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>-3.633279933022749</v>
+        <v>12.20700960233989</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>0.5478077262332306</v>
+        <v>22.19855269485786</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-23.25980598664175</v>
+        <v>2.081144501418571</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-6.786568164317615</v>
+        <v>14.15708384659731</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-2.422716154478252</v>
+        <v>15.23065708834095</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>-18.80602057619221</v>
+        <v>8.693327035501952</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>-3.806410201152659</v>
+        <v>26.20399995098835</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>0.485904248783342</v>
+        <v>27.12758714841074</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>3.228630822813287</v>
+        <v>12.92556871451237</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>9.267630563638342</v>
+        <v>17.8346915413168</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>12.36885003823662</v>
+        <v>19.72765760779067</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>-12.45516129510493</v>
+        <v>23.62537662784003</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>5.272677087317845</v>
+        <v>18.66506385267141</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>10.97520299871066</v>
+        <v>33.13484885117386</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>-15.35500473961615</v>
+        <v>11.8947294687054</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>0.04841584108062591</v>
+        <v>20.62406686277793</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>4.452558913817654</v>
+        <v>29.64011751657914</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>-20.63782435075292</v>
+        <v>0.6544589815733417</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>-3.963351263388347</v>
+        <v>7.037178083899775</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>0.6557701489059298</v>
+        <v>9.417012311507435</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-15.65685510003441</v>
+        <v>-1.315345921182647</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>-0.3923597841657767</v>
+        <v>12.31751089752545</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-17.64811738715768</v>
+        <v>17.11984525681866</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>-2.421128638437963</v>
+        <v>21.19944334056699</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>1.760648755969143</v>
+        <v>24.08547089088004</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>-22.01626160042181</v>
+        <v>2.195237592959192</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>-5.460618179887945</v>
+        <v>26.89723111984653</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-1.096535860194933</v>
+        <v>26.4079447068767</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>-17.48002745330939</v>
+        <v>6.044895148556709</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>-2.409844448897587</v>
+        <v>36.70457573149417</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>1.883153761385742</v>
+        <v>35.72125552773523</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>4.572931831789816</v>
+        <v>39.16448606556948</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>10.6261564771602</v>
+        <v>45.19936436266624</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>13.72913288287641</v>
+        <v>45.77633737281251</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>-11.21787549069354</v>
+        <v>28.21997205121784</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>6.604964266630205</v>
+        <v>44.69780945276013</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>12.30728084973964</v>
+        <v>49.81458971677251</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>-14.20481705368157</v>
+        <v>14.80390846996256</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>1.270852500451397</v>
+        <v>31.62031024757527</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>5.676773266807473</v>
+        <v>38.30515348273496</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>-19.38688996166736</v>
+        <v>4.913931288102084</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>-2.629313759933211</v>
+        <v>26.17532292543022</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>1.991210716945062</v>
+        <v>37.52629789913395</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>-14.32176768517365</v>
+        <v>5.080258675818932</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>1.014125405453115</v>
+        <v>42.51469553126501</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-17.36735356801893</v>
+        <v>8.720165857866579</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-2.136103139511448</v>
+        <v>16.07245863270779</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>2.044919968910847</v>
+        <v>20.75279663336882</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-21.69947966420779</v>
+        <v>0.2168223825642244</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-5.138391401195662</v>
+        <v>25.2110897381776</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-0.7746464151004631</v>
+        <v>26.78372597029183</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-17.15426823729156</v>
+        <v>4.66978794067419</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-2.079721976615687</v>
+        <v>36.13744963859805</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>2.212380975082709</v>
+        <v>39.3427008998357</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>4.887811590895197</v>
+        <v>40.91992537561772</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>10.93836994314747</v>
+        <v>44.32747447005154</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>14.04175076117493</v>
+        <v>50.1887885012745</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>-10.9196877229836</v>
+        <v>16.71970291005314</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>6.912886962829234</v>
+        <v>33.72982507442246</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>12.61335109670632</v>
+        <v>40.00272838137738</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-13.92448296804037</v>
+        <v>7.472533426747823</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>1.55524509101032</v>
+        <v>23.72379613835514</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>5.960530465982842</v>
+        <v>34.1527980302068</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-19.07056106316548</v>
+        <v>0.327892333263577</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-2.307711838201854</v>
+        <v>18.60909684702901</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>2.3125728435311</v>
+        <v>36.15271168580465</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>-13.99653760727143</v>
+        <v>1.546199463429289</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>1.343490654496804</v>
+        <v>35.90118013620022</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>-18.21841170781731</v>
+        <v>3.906135652404128</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>-3.002371776586486</v>
+        <v>11.3414482711604</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>1.186716144000002</v>
+        <v>20.10251241378949</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-22.61712858706414</v>
+        <v>-0.9292043842433202</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>-6.07543930155822</v>
+        <v>22.17013149610611</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-1.702775997244615</v>
+        <v>28.35794497124902</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>-18.11571315378252</v>
+        <v>1.224471327595488</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>-3.056116596780939</v>
+        <v>34.11705524991683</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>1.244228795079096</v>
+        <v>38.05325476588862</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>3.954014777503559</v>
+        <v>32.07671314175861</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>10.00613063262792</v>
+        <v>34.78533234090776</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>13.11564444196437</v>
+        <v>39.93379076233607</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>-11.81689821972621</v>
+        <v>12.7352487161095</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>5.991651525157565</v>
+        <v>26.94972015079753</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>11.70365180780582</v>
+        <v>39.67061479635125</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>-14.77680580907673</v>
+        <v>4.437267301594808</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>0.6876355690966989</v>
+        <v>20.25294036333499</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>5.100686390277218</v>
+        <v>34.6487661758171</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>-19.98973668735802</v>
+        <v>1.834826620739285</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>-3.246366325154057</v>
+        <v>16.53981024795531</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>1.382517731462343</v>
+        <v>35.13104076512412</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-14.95974928874665</v>
+        <v>-0.3395929218410956</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>0.3652716175675295</v>
+        <v>28.07794424245665</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>4.119313670670337</v>
+        <v>22.38199142574793</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>6.393839033568312</v>
+        <v>15.22913549312207</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>12.80679040362859</v>
+        <v>33.73728565590383</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>16.18776977696162</v>
+        <v>40.46453929659246</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>-9.368617244260491</v>
+        <v>1.255292503768636</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>9.249301880884289</v>
+        <v>11.51323466249544</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>14.99653120842441</v>
+        <v>20.23882055187492</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>-7.821707817761279</v>
+        <v>12.78810916246999</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>8.157812309230373</v>
+        <v>18.06123930003398</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>12.83030925660267</v>
+        <v>28.60694722938416</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>-13.29935005381624</v>
+        <v>-1.617586360658485</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>4.089138557521608</v>
+        <v>4.046555870366817</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>9.01016533418175</v>
+        <v>9.148937660903883</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-7.083090778775826</v>
+        <v>-1.762337105773355</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>8.756080493394236</v>
+        <v>15.14761485477353</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>13.54285372499152</v>
+        <v>30.64958972768461</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>16.25354360017543</v>
+        <v>17.57639374919789</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>23.05354173354877</v>
+        <v>37.51581389402561</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>26.46843366381534</v>
+        <v>47.94652298684181</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>-0.3112873724723926</v>
+        <v>2.667793007265416</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>18.93837507759925</v>
+        <v>13.97998858723058</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>24.98274052358201</v>
+        <v>26.82044479441213</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>5.527572890053307</v>
+        <v>58.75162998190908</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>7.74364622294447</v>
+        <v>45.58544816866007</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>14.17149941593041</v>
+        <v>60.38726457396766</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>17.5547903423292</v>
+        <v>68.13687622412617</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>-8.123483499814768</v>
+        <v>15.4012214369037</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>10.59166967549653</v>
+        <v>56.58865290399115</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>16.34010063354052</v>
+        <v>62.58800918048625</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>-6.613059135192529</v>
+        <v>22.42865046929203</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>9.439132704453279</v>
+        <v>38.3215774118629</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>14.11350925501483</v>
+        <v>44.78782305792109</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>-11.98852288971484</v>
+        <v>6.924829019456986</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>5.483613577267604</v>
+        <v>35.69845534312999</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>10.40654409864341</v>
+        <v>43.67424139347462</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>-5.683599254853149</v>
+        <v>9.502250467256566</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>10.2274032883834</v>
+        <v>56.76660185918573</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>15.01605590211868</v>
+        <v>68.42370243784492</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>17.66862398251722</v>
+        <v>70.33385845007354</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>24.48113616360249</v>
+        <v>80.92137411725929</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>27.89849393521158</v>
+        <v>87.3803876490591</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>0.9974083812581256</v>
+        <v>29.25401175820376</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>20.34354135298616</v>
+        <v>73.31052004001863</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>26.38893931567448</v>
+        <v>78.93731311615781</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>5.856168244742108</v>
+        <v>60.55086673651286</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>8.056509462967206</v>
+        <v>35.5716517153153</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>14.48137145439186</v>
+        <v>45.81824328164566</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>17.8652530477726</v>
+        <v>64.17436169964294</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-7.825732374221857</v>
+        <v>5.490158522634488</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>10.8987560899898</v>
+        <v>47.59883282177444</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>16.64568515779011</v>
+        <v>57.61600978476017</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>-6.318553711423903</v>
+        <v>13.48587370782922</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>9.73763679764221</v>
+        <v>31.69880588335291</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>14.41099930413188</v>
+        <v>42.57438151331893</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>-11.65758366040777</v>
+        <v>1.640409025465587</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>5.819689007016777</v>
+        <v>31.11853798462393</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>10.74207228616478</v>
+        <v>44.27980222990168</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>-5.343291880152748</v>
+        <v>4.469517710450624</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>10.57179536328569</v>
+        <v>52.96541032688409</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>15.35929059661086</v>
+        <v>72.24139332628323</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>17.99565017268813</v>
+        <v>64.5934021933198</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>24.80437625131309</v>
+        <v>73.44932905083023</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>28.2219678956633</v>
+        <v>88.55355708309489</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>1.308900032429761</v>
+        <v>16.62066557337539</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>20.66405769436118</v>
+        <v>64.94643043731107</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>26.7074942437023</v>
+        <v>76.59490927019803</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>4.885885442134182</v>
+        <v>53.31343521160019</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>7.122993247479144</v>
+        <v>20.35079587836265</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>13.54959428094859</v>
+        <v>29.31028307008694</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>16.93990257585013</v>
+        <v>45.60212205826302</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>-8.723878792273922</v>
+        <v>3.311317519281367</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>9.976757087790332</v>
+        <v>38.77903682462794</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>15.7343824355566</v>
+        <v>51.23916718254442</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>-7.187718427848736</v>
+        <v>10.44881180169122</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>8.854038845624814</v>
+        <v>31.06173516388164</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>13.53564138778354</v>
+        <v>45.4341485716544</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>-12.59484896003482</v>
+        <v>3.903368550077346</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>4.863972210607599</v>
+        <v>28.17891940187509</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>9.79528628349059</v>
+        <v>44.98931986441482</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>-6.324641701061779</v>
+        <v>1.424612161414416</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>9.576278149566818</v>
+        <v>44.64246139458689</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>14.37219317117221</v>
+        <v>68.08192071940523</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>17.04566849198464</v>
+        <v>51.1415259986878</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>23.85845367289564</v>
+        <v>62.53807316839708</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>27.28225780373023</v>
+        <v>82.99355214694928</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>0.3933179785347818</v>
+        <v>11.31044927269092</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>19.72643179900735</v>
+        <v>58.34965348814148</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>25.78128637625996</v>
+        <v>74.45673846752372</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>9.535357377033897</v>
+        <v>14.44601711337322</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>24.50023298662258</v>
+        <v>11.13699456173435</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>28.59857458555823</v>
+        <v>19.30324980890018</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>5.757786025392804</v>
+        <v>1.08439358579701</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>22.02532179587983</v>
+        <v>9.075921309145848</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>26.29170568754075</v>
+        <v>9.92635193753863</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>11.58161713164182</v>
+        <v>7.147741255011084</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>26.39531305764289</v>
+        <v>21.2542745345029</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>30.60397481122564</v>
+        <v>21.85060314922769</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>30.96016112671267</v>
+        <v>9.355103345506969</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>36.94029070642616</v>
+        <v>15.09118406389112</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>40.00070013562133</v>
+        <v>16.78982193596721</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>14.70376796048384</v>
+        <v>14.60244431433819</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>32.13708128993648</v>
+        <v>9.525952661309475</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>37.7271820114355</v>
+        <v>19.2812142828442</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>12.93713078962038</v>
+        <v>13.6522025892695</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>28.16499359104911</v>
+        <v>23.39091378737612</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>32.47713727513268</v>
+        <v>32.97511969153585</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>8.391132854704743</v>
+        <v>0.609841238116374</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>24.88208188960357</v>
+        <v>7.496603099031304</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>29.39265563106976</v>
+        <v>12.21346021372345</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>14.74895491075455</v>
+        <v>0.8520578173285784</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>29.84171320090793</v>
+        <v>15.69200414459972</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>10.69673354236415</v>
+        <v>15.48397810906443</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>25.73198392751098</v>
+        <v>18.41223971951993</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>29.83099869110082</v>
+        <v>20.40441336205788</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>7.021573475025143</v>
+        <v>0.8695032001138081</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>23.37034162675226</v>
+        <v>20.36081562352532</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>27.63693093808529</v>
+        <v>20.11801466107583</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>12.92817604001523</v>
+        <v>4.106272254074636</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>27.81137254548266</v>
+        <v>30.15507835223116</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>32.02070714601054</v>
+        <v>29.08573938776357</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>32.32158577024286</v>
+        <v>32.57928337919537</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>38.31578645062727</v>
+        <v>39.27025794119269</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>41.37824185056873</v>
+        <v>39.3135405714247</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>15.95866109459859</v>
+        <v>17.61085390985718</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>33.48547248224207</v>
+        <v>32.05226695292566</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>39.07537541292434</v>
+        <v>33.67293047306642</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>14.10794971685137</v>
+        <v>16.2252812046588</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>29.40697904993106</v>
+        <v>33.89721331437298</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>33.72084644908131</v>
+        <v>41.59788852166255</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>9.662349944220495</v>
+        <v>5.069784604195441</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>26.235230806754</v>
+        <v>26.19013660148882</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>30.74713549385579</v>
+        <v>39.09118027060089</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>16.10464124806879</v>
+        <v>7.035550617716574</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>31.26770812702198</v>
+        <v>44.19896565181564</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>10.95513360805434</v>
+        <v>6.77941695639516</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>25.99455814523073</v>
+        <v>12.19396482367429</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>30.09284942923357</v>
+        <v>16.28504472584702</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>7.315107466995883</v>
+        <v>-1.480147899552531</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>23.66923416269947</v>
+        <v>17.89324566005462</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>27.93550872271899</v>
+        <v>19.89299048466945</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>13.22943271079458</v>
+        <v>2.222265994771199</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>28.11689654467206</v>
+        <v>28.37939066264442</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>32.3253705494625</v>
+        <v>31.59854293062543</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>32.61367186496339</v>
+        <v>33.63314698613228</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>38.60521868408981</v>
+        <v>38.02842941702821</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>41.66813108733586</v>
+        <v>42.90548778633073</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>16.23487663190586</v>
+        <v>6.498954211383086</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>33.77133451797658</v>
+        <v>21.16141599798414</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>39.35943575853739</v>
+        <v>24.162135781</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>14.36598659583234</v>
+        <v>8.720832160570623</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>29.66897285631109</v>
+        <v>25.61762954256837</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>33.98223495168143</v>
+        <v>37.21987642841643</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>9.955492544212781</v>
+        <v>0.5930820431809423</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>26.53354320944523</v>
+        <v>18.84541202614336</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>31.04522983673935</v>
+        <v>37.7207963187106</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>16.40542506273131</v>
+        <v>3.386924197616452</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>31.57251738568119</v>
+        <v>37.26906860358577</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>10.14142454188931</v>
+        <v>3.051056576146948</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>25.16593344853785</v>
+        <v>8.232344569974831</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>29.27211649468379</v>
+        <v>16.26910247072157</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>6.436174525569015</v>
+        <v>-2.128918022152021</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>22.77123410658052</v>
+        <v>15.40005559710485</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>27.04622212746357</v>
+        <v>21.69000694699705</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>12.30893171362307</v>
+        <v>-0.1527115426955916</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>27.18175226833939</v>
+        <v>26.96911284378501</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>31.39829068335257</v>
+        <v>31.29759779464408</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>31.718208582759</v>
+        <v>26.08817554532803</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>37.71131801338463</v>
+        <v>30.33453208356285</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>40.78004039260345</v>
+        <v>34.70457405514811</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>15.3747056936347</v>
+        <v>3.783122066156643</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>32.88749193298768</v>
+        <v>16.24399882551638</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>38.48688454299958</v>
+        <v>24.84165251512841</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>13.55104526701546</v>
+        <v>6.657452550506491</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>28.83907468791307</v>
+        <v>22.62838906328197</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>33.15993610657758</v>
+        <v>37.93437612875488</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>9.075100950598845</v>
+        <v>2.319065256968521</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>25.63404277196572</v>
+        <v>16.95685650996158</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>30.15413392237443</v>
+        <v>36.78426483296298</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>15.48324604043206</v>
+        <v>2.477411594870773</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>30.63567227457973</v>
+        <v>30.25764635723579</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>34.26020321074135</v>
+        <v>26.51145444686008</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>34.18159396637991</v>
+        <v>19.86461660441375</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>40.53156171543441</v>
+        <v>38.83333410062969</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>43.85973424421086</v>
+        <v>46.42399790381693</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>17.86407166663353</v>
+        <v>3.153352658840717</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>36.19206595263249</v>
+        <v>17.28553571933876</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>41.83109645724776</v>
+        <v>26.302386025849</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>19.88127543341837</v>
+        <v>12.9833356695632</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>35.68109706686039</v>
+        <v>20.51611482590006</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>40.26828021158776</v>
+        <v>31.08803417673382</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>15.11704238654684</v>
+        <v>-2.952842255896861</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>32.31547190670869</v>
+        <v>3.893764039031794</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>37.13461532841994</v>
+        <v>10.62935231564123</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>22.662123294281</v>
+        <v>-0.6072696612371828</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>38.32518732101602</v>
+        <v>17.84736149057474</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>43.02617170910427</v>
+        <v>32.77537281361074</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>43.37179550405587</v>
+        <v>20.93922431773351</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>50.11638063400226</v>
+        <v>42.00932636897446</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>53.49142141276991</v>
+        <v>50.86080355298633</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>26.29026585450796</v>
+        <v>3.408194290903637</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>45.26177838323105</v>
+        <v>18.61737994584632</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>51.19809193073797</v>
+        <v>29.45496940818492</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>35.68792404456273</v>
+        <v>60.58030809885495</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>35.54866105852581</v>
+        <v>48.19099913155589</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>41.91334241067869</v>
+        <v>63.94835708050844</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>45.24409465128906</v>
+        <v>71.89372848152244</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>19.1269998399792</v>
+        <v>16.09245009721938</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>37.55069322385832</v>
+        <v>59.34202711219255</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>43.19089807695202</v>
+        <v>65.83555891412873</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>21.10909216381883</v>
+        <v>22.14375644130426</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>36.98055756166556</v>
+        <v>40.21717738023369</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>41.56954798742509</v>
+        <v>46.93635305250931</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>16.44682236051608</v>
+        <v>6.637179288159722</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>33.72779152589375</v>
+        <v>35.37100570609581</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>38.54874037921868</v>
+        <v>44.73735393788143</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>24.08070975357992</v>
+        <v>10.92321293958151</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>39.81456864536133</v>
+        <v>58.08090407573869</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>44.51736678541329</v>
+        <v>68.90261967056287</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>44.80263055806597</v>
+        <v>70.41190771409811</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>51.55963525645572</v>
+        <v>83.3061152959468</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>54.93738095700687</v>
+        <v>87.9330072088067</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>27.61534166513877</v>
+        <v>29.38770442427408</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>46.68188131832098</v>
+        <v>75.69375409372299</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>52.61916718207392</v>
+        <v>80.04216900242135</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>35.99199772795297</v>
+        <v>61.85172679481567</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>35.83879253543013</v>
+        <v>38.69427723129522</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>42.2004983802409</v>
+        <v>50.59060232661241</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>45.53188683385842</v>
+        <v>68.13215203300541</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>19.40279853598773</v>
+        <v>6.704689814136628</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>37.83572752999289</v>
+        <v>50.81439535866781</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>43.47447153099959</v>
+        <v>61.4012437615997</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>21.38149083021527</v>
+        <v>13.38922249688889</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>37.25686840685034</v>
+        <v>33.52745147929635</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>41.84486768978245</v>
+        <v>44.64531312126601</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>16.75480486753141</v>
+        <v>1.744602759910968</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>34.04082660327393</v>
+        <v>31.17397984270414</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>38.86124303094793</v>
+        <v>45.55550765241308</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>24.3967993429593</v>
+        <v>6.185892318003091</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>40.13464824628178</v>
+        <v>54.31668875697088</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>44.83631514240568</v>
+        <v>72.44955589633915</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>45.10713905796787</v>
+        <v>65.15598839528768</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>51.86038675217377</v>
+        <v>76.78476677023873</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>55.23840891847271</v>
+        <v>89.2839528320622</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>27.90509304728513</v>
+        <v>17.73878405267038</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>46.98057051537231</v>
+        <v>68.30719010292387</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>52.91592824186468</v>
+        <v>78.51379604386975</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>35.06291726007343</v>
+        <v>55.75846774126769</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>34.94370141183598</v>
+        <v>24.88708228316007</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>41.3071695185586</v>
+        <v>36.15577989624283</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>44.64464716317836</v>
+        <v>51.75384362031883</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>18.54177159234628</v>
+        <v>5.420017656544992</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>36.95122720884797</v>
+        <v>43.23405765571417</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>42.60045532612257</v>
+        <v>56.17210559652192</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>20.54948014496131</v>
+        <v>11.51513158194888</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>36.41071601840111</v>
+        <v>33.4526681379233</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>41.00680964800203</v>
+        <v>47.87334524732592</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>15.85597718791436</v>
+        <v>4.093954028380679</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>33.12387016544848</v>
+        <v>28.75821680878666</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>37.95304732310088</v>
+        <v>46.23375859020818</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>23.45614655166789</v>
+        <v>4.542573947496713</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>39.18013175313003</v>
+        <v>47.42230469987754</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>43.89006765134292</v>
+        <v>69.75551441599255</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>44.1952355884209</v>
+        <v>53.85528827825421</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>50.95251713759308</v>
+        <v>67.93811455235196</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>54.33646472138021</v>
+        <v>85.30731482923157</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>27.02630024759314</v>
+        <v>13.1520783830525</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>46.0800814595913</v>
+        <v>62.71181147864048</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>52.02666333558559</v>
+        <v>76.68114917824221</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>12.18133655984203</v>
+        <v>12.1676822751382</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>28.5515292540149</v>
+        <v>19.95508837294794</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>32.92377457380005</v>
+        <v>31.83268937344359</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>8.500299568680546</v>
+        <v>-1.601659283968871</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>26.30389384903893</v>
+        <v>15.81669200629209</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>30.84002823960405</v>
+        <v>19.81598736514237</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>15.28432579445334</v>
+        <v>3.036570999100583</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>31.49424322198634</v>
+        <v>38.99313817361858</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>35.98273428149071</v>
+        <v>42.07675017523222</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>35.65778221454781</v>
+        <v>24.73177523049579</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>42.13500557917698</v>
+        <v>29.27278733849639</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>45.38289225715277</v>
+        <v>30.9968010219032</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>17.64551114310201</v>
+        <v>10.51784669475333</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>36.86292569050411</v>
+        <v>20.21586751192047</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>42.80268995206383</v>
+        <v>34.75171433870043</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>15.45149829080071</v>
+        <v>14.19420167849596</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>32.0577824249316</v>
+        <v>26.49407178186096</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>36.64407324075125</v>
+        <v>31.38573466503961</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>10.9977340027101</v>
+        <v>-1.122310985612941</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>28.99382265722089</v>
+        <v>10.78597765258016</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>33.77438055938661</v>
+        <v>9.333103088900913</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>18.32177090334402</v>
+        <v>-2.643095492610868</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>34.78430284642668</v>
+        <v>23.24893904777166</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>13.43210768203809</v>
+        <v>18.08825498705956</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>29.87819229005796</v>
+        <v>34.31027105940986</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>34.25093018696268</v>
+        <v>38.28329601971944</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>9.860255551508438</v>
+        <v>4.993237473160359</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>27.75142974403374</v>
+        <v>37.26455614718559</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>32.28752579568579</v>
+        <v>38.32073989526923</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>16.73358962157107</v>
+        <v>6.510246338686727</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>33.01845079473696</v>
+        <v>56.68357743932356</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>37.50743771198423</v>
+        <v>56.00778608760891</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>37.12261437335425</v>
+        <v>58.66036874720845</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>43.6154016009195</v>
+        <v>63.56638736931615</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>46.8655070003105</v>
+        <v>63.40927568099303</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>18.99573003003057</v>
+        <v>20.09797522039294</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>38.31457585905842</v>
+        <v>52.66206618104807</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>44.2537849599578</v>
+        <v>58.34834886884952</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>16.71166548653209</v>
+        <v>18.21676434983869</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>33.3946003872452</v>
+        <v>40.0811587085167</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>37.98243138956926</v>
+        <v>41.33217332533014</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>12.36499485485941</v>
+        <v>5.091999894915972</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>30.44930993568118</v>
+        <v>34.4975750189189</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>35.23094166231106</v>
+        <v>38.09009602005812</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>19.7801311456565</v>
+        <v>5.254382406698269</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>36.31838182508385</v>
+        <v>55.80323157914208</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>13.70513943549783</v>
+        <v>8.692872860831827</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>30.15547585742283</v>
+        <v>27.02299435837249</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>34.52735581655991</v>
+        <v>33.20953473779078</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>10.17052330735643</v>
+        <v>3.075827584644333</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>28.06721061270322</v>
+        <v>34.79361630436915</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>32.6028867180453</v>
+        <v>38.30033202461108</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>17.05180777186246</v>
+        <v>5.410845421870849</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>33.3410122249665</v>
+        <v>54.91244442882013</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>37.82899663842417</v>
+        <v>58.49280931085088</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>37.43120945285939</v>
+        <v>61.26941477174628</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>43.92120061759083</v>
+        <v>63.92755432659334</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>47.17180827144294</v>
+        <v>69.02304435730969</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>19.28795479846192</v>
+        <v>9.084181591142446</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>38.61687718482801</v>
+        <v>41.54220099460853</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>44.55405957446703</v>
+        <v>48.39912622952744</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>16.98436051214393</v>
+        <v>11.2857242970624</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>33.67133796401398</v>
+        <v>32.28653828122623</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>38.25844077546132</v>
+        <v>37.41577712301487</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>12.67485561456533</v>
+        <v>2.050876331629219</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>30.76450359943681</v>
+        <v>28.51935273256697</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>35.54582006139338</v>
+        <v>37.88396794898627</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>20.09786803277443</v>
+        <v>3.27458371650188</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>36.64022684229968</v>
+        <v>49.92241087952696</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>12.84226480614517</v>
+        <v>4.185960717082928</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>29.27688458076823</v>
+        <v>20.74189507345932</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>33.65733015843922</v>
+        <v>33.49806933919634</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>9.238671431676288</v>
+        <v>0.6790086249719067</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>27.11522769995126</v>
+        <v>28.09657351439479</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>31.66034108148024</v>
+        <v>39.73718033555021</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>16.07603696521137</v>
+        <v>1.169065328239434</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>32.34982568556164</v>
+        <v>50.20642653310541</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>36.84655361914743</v>
+        <v>57.55668128781504</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>36.48176983449535</v>
+        <v>50.39754911200934</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>42.97328694836089</v>
+        <v>54.80607734004663</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>46.23002914936426</v>
+        <v>60.92122103956658</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>18.37556246682576</v>
+        <v>4.22259216576807</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>37.67927031337092</v>
+        <v>33.74772865353295</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>43.62868472604654</v>
+        <v>48.9608530816917</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>16.11987207901143</v>
+        <v>6.342163943180225</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>32.7910599325218</v>
+        <v>25.0068439977093</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>37.38643884106089</v>
+        <v>35.94978343941188</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>11.74118021925977</v>
+        <v>0.3339004989296868</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>29.81063042877583</v>
+        <v>20.74490605698875</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>34.60108326311762</v>
+        <v>34.70583527898076</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>19.11999427284331</v>
+        <v>-1.413138860292662</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>35.64688360379784</v>
+        <v>37.04636868289249</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>39.48173427017174</v>
+        <v>28.0599183137546</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>38.78307536694948</v>
+        <v>22.36304614702566</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>45.62489147871563</v>
+        <v>37.23551639830325</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>49.14100470499189</v>
+        <v>38.49026032158363</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>20.78429768362917</v>
+        <v>3.435508106196835</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>40.87171228958336</v>
+        <v>15.4323590048548</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>46.86919467885502</v>
+        <v>24.51794864563497</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>22.87589329425973</v>
+        <v>12.30536808889868</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>40.11159358662367</v>
+        <v>20.7105203884272</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>45.00571904494828</v>
+        <v>31.79977642008027</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>18.1940700662053</v>
+        <v>-3.453962153177677</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>36.96546083273554</v>
+        <v>7.902028830229256</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>42.08871488418765</v>
+        <v>12.82691713570044</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>26.76941780098545</v>
+        <v>-2.762335312400872</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>43.8593261336128</v>
+        <v>23.64914075496928</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>48.87363548784606</v>
+        <v>39.77226485112837</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>48.56418820830554</v>
+        <v>25.80216977765591</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>55.8495049904822</v>
+        <v>43.07181915391255</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>59.4442548541258</v>
+        <v>53.34029707300412</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>29.72287611602531</v>
+        <v>1.901366185785093</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>50.54389041211863</v>
+        <v>19.17453365979356</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>56.86282134727314</v>
+        <v>33.85927558802217</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>41.01735888941114</v>
+        <v>64.08976095903341</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>40.25333491393438</v>
+        <v>55.46474682799949</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>47.11138840636568</v>
+        <v>66.66524633100701</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>50.63024887265446</v>
+        <v>66.7854227650339</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>22.14257283652606</v>
+        <v>16.28743146658178</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>42.33361586175778</v>
+        <v>60.394911353862</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>48.33194535643997</v>
+        <v>64.75226508788037</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>24.19508741406103</v>
+        <v>20.46780111206026</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>41.5079656352232</v>
+        <v>41.35060551352832</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>46.40373451806138</v>
+        <v>45.06900845119716</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>19.6221368184632</v>
+        <v>5.226084905766513</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>38.48242440415039</v>
+        <v>42.20761632852313</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>43.6072724708194</v>
+        <v>45.33634476721777</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>28.29300362195247</v>
+        <v>7.073029459873183</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>45.45916743283625</v>
+        <v>65.16765406760283</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>50.47513300405288</v>
+        <v>72.34854783677962</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>50.10087126261025</v>
+        <v>76.84031093752102</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>57.39996358541649</v>
+        <v>85.17280180366674</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>60.99760738291423</v>
+        <v>90.68792450437299</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>31.14587219739846</v>
+        <v>24.55810527128618</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>52.06983782528707</v>
+        <v>76.87419887607523</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>58.38940960979672</v>
+        <v>81.29912464994899</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>41.33833964879007</v>
+        <v>66.3837171012767</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>40.55985552483655</v>
+        <v>48.0832140441747</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>47.4148023974125</v>
+        <v>55.63553040624569</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>50.93435905381959</v>
+        <v>65.36039464662824</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>22.43428646943032</v>
+        <v>7.778858725433921</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>42.63500402551446</v>
+        <v>52.97248796240135</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>48.63166484964392</v>
+        <v>60.89615413829979</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>24.48270579809034</v>
+        <v>11.1288824913425</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>41.79955557243727</v>
+        <v>33.95074820437401</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>46.69417945986187</v>
+        <v>41.89179322272015</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>19.94741322841718</v>
+        <v>-0.01392084760338008</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>38.81288471790237</v>
+        <v>37.59010342668115</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>43.93708138806585</v>
+        <v>45.38450106502951</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>28.62661999989322</v>
+        <v>2.349577963178547</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>45.79683097405433</v>
+        <v>60.91882645188794</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>50.81150372353558</v>
+        <v>75.08164829385335</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>50.42235036582187</v>
+        <v>71.79891012197615</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>57.71747218423714</v>
+        <v>79.01154848221299</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>61.31541387619478</v>
+        <v>92.74681561138212</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>31.45213177848517</v>
+        <v>12.14061910067139</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>52.38541842652242</v>
+        <v>69.17045362519568</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>58.70282242922152</v>
+        <v>78.90281498201152</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>40.3534413143219</v>
+        <v>56.74788069044995</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>39.61050662794275</v>
+        <v>27.52784138952913</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>46.46715035162099</v>
+        <v>36.18317414040366</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>49.99313279998925</v>
+        <v>45.64537655699863</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>21.52076809360985</v>
+        <v>2.73995204476352</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>41.69641748664613</v>
+        <v>39.94884609203331</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>47.70450095453435</v>
+        <v>53.86107222612495</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>23.60100925657919</v>
+        <v>6.785991482657749</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>40.90296662121897</v>
+        <v>29.90849814925177</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>45.80640648501479</v>
+        <v>44.21068159480657</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>18.9950308093282</v>
+        <v>-0.002014014646839257</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>37.84137818770586</v>
+        <v>30.43814448180149</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>42.9751003673819</v>
+        <v>45.45252042385994</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>27.63008405799307</v>
+        <v>-1.722068282842656</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>44.78570855915655</v>
+        <v>49.23438435857716</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>49.80937619808943</v>
+        <v>71.3967463712697</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>49.45591242368115</v>
+        <v>56.49095160191548</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>56.75520120306395</v>
+        <v>67.36586675831461</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>60.35943958249452</v>
+        <v>86.93088104538054</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>30.52044044652088</v>
+        <v>5.41200687400638</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>51.43062334428123</v>
+        <v>59.97768191502273</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>57.76023718312782</v>
+        <v>77.82324698491641</v>
       </c>
     </row>
   </sheetData>
